--- a/docs/Extension-CareConnect-ValueApproximation-1.xlsx
+++ b/docs/Extension-CareConnect-ValueApproximation-1.xlsx
@@ -413,11 +413,11 @@
     <col min="2" max="2" width="13.1640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="43.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -430,19 +430,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.91015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>

--- a/docs/Extension-CareConnect-ValueApproximation-1.xlsx
+++ b/docs/Extension-CareConnect-ValueApproximation-1.xlsx
@@ -413,11 +413,11 @@
     <col min="2" max="2" width="13.1640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="43.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -430,19 +430,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.91015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.0703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>

--- a/docs/Extension-CareConnect-ValueApproximation-1.xlsx
+++ b/docs/Extension-CareConnect-ValueApproximation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="75">
   <si>
     <t>Path</t>
   </si>
@@ -137,10 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -151,9 +148,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -226,6 +220,9 @@
   </si>
   <si>
     <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ValueApproximation-1</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -585,10 +582,10 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -648,18 +645,18 @@
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AI2" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="AJ2" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -670,25 +667,25 @@
         <v>38</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -739,13 +736,13 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>37</v>
@@ -754,16 +751,16 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -782,16 +779,16 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -829,19 +826,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -856,12 +853,12 @@
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -869,10 +866,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -884,16 +881,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -901,7 +898,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -943,13 +940,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -958,12 +955,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -971,10 +968,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -986,13 +983,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1031,23 +1028,23 @@
         <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1056,25 +1053,25 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1086,13 +1083,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1143,13 +1140,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1158,7 +1155,7 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Extension-CareConnect-ValueApproximation-1.xlsx
+++ b/docs/Extension-CareConnect-ValueApproximation-1.xlsx
@@ -410,11 +410,11 @@
     <col min="2" max="2" width="13.1640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="43.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -427,19 +427,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.91015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
